--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-12T23:44:27+01:00</t>
+    <t>2023-12-13T00:38:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:38:53+01:00</t>
+    <t>2023-12-13T00:44:24+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:44:24+01:00</t>
+    <t>2023-12-13T00:53:03+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:53:03+01:00</t>
+    <t>2023-12-13T00:58:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:58:42+01:00</t>
+    <t>2023-12-13T10:40:21+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T10:40:21+01:00</t>
+    <t>2023-12-13T11:06:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:06:00+01:00</t>
+    <t>2023-12-13T11:11:11+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:11:11+01:00</t>
+    <t>2023-12-13T11:17:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:17:26+01:00</t>
+    <t>2023-12-13T16:08:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T16:08:28+01:00</t>
+    <t>2023-12-13T16:14:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T16:14:30+01:00</t>
+    <t>2023-12-13T17:25:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T17:25:33+01:00</t>
+    <t>2023-12-13T17:36:01+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T17:36:01+01:00</t>
+    <t>2023-12-14T00:07:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:07:25+01:00</t>
+    <t>2023-12-14T00:17:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:17:30+01:00</t>
+    <t>2023-12-14T00:31:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:31:44+01:00</t>
+    <t>2023-12-14T15:10:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T15:10:19+01:00</t>
+    <t>2024-06-09T15:34:44+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>6</t>
+    <t>7</t>
   </si>
   <si>
     <t>Level</t>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Bildediagnostikk</t>
+  </si>
+  <si>
+    <t>Personlig</t>
   </si>
 </sst>
 </file>
@@ -447,7 +450,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -539,6 +542,18 @@
       </c>
       <c r="D7" s="2"/>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-09T15:34:44+02:00</t>
+    <t>2024-06-12T14:59:11+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-06T23:06:55+01:00</t>
+    <t>2024-11-07T10:16:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:16:17+01:00</t>
+    <t>2024-11-07T10:24:13+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:24:13+01:00</t>
+    <t>2024-11-07T10:34:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:34:59+01:00</t>
+    <t>2025-02-07T15:58:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:58:52+01:00</t>
+    <t>2025-02-12T12:09:01+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T12:09:01+01:00</t>
+    <t>2025-02-12T17:25:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>7</t>
+    <t>8</t>
   </si>
   <si>
     <t>Level</t>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Personlig</t>
+  </si>
+  <si>
+    <t>Blodbank</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -554,6 +557,18 @@
       </c>
       <c r="D8" s="2"/>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T17:25:34+01:00</t>
+    <t>2025-02-13T07:45:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T07:45:06+01:00</t>
+    <t>2025-02-21T16:49:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T16:49:26+01:00</t>
+    <t>2025-02-22T02:39:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T02:39:46+01:00</t>
+    <t>2025-02-22T03:24:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:24:26+01:00</t>
+    <t>2025-02-22T03:36:49+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:36:49+01:00</t>
+    <t>2025-02-22T03:45:56+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:45:56+01:00</t>
+    <t>2025-02-22T03:55:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:55:28+01:00</t>
+    <t>2025-02-22T04:12:23+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T04:12:23+01:00</t>
+    <t>2025-02-22T05:08:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T05:08:06+01:00</t>
+    <t>2025-02-22T05:29:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T05:29:40+01:00</t>
+    <t>2025-03-16T11:47:10+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T11:47:10+01:00</t>
+    <t>2025-03-16T12:58:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T12:58:55+01:00</t>
+    <t>2025-03-16T13:18:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T13:18:55+01:00</t>
+    <t>2025-03-26T11:34:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T11:34:28+01:00</t>
+    <t>2025-05-28T01:07:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T01:07:52+02:00</t>
+    <t>2025-05-28T02:05:36+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T02:05:36+02:00</t>
+    <t>2025-05-29T20:33:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T20:33:03+02:00</t>
+    <t>2025-05-29T20:44:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T20:44:52+02:00</t>
+    <t>2025-07-07T00:15:54+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T00:15:54+02:00</t>
+    <t>2025-07-07T00:32:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T00:32:38+02:00</t>
+    <t>2025-07-07T08:59:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T08:59:22+02:00</t>
+    <t>2025-09-28T17:18:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-28T17:18:13+02:00</t>
+    <t>2025-09-29T11:26:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:26:30+02:00</t>
+    <t>2025-09-29T11:54:59+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:54:59+02:00</t>
+    <t>2025-09-29T13:11:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.1</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:11:32+02:00</t>
+    <t>2025-09-29T13:18:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-scheduleAndSlot-type-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:18:42+02:00</t>
+    <t>2025-10-01T13:36:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
